--- a/server/storage/private/report/Playtorium_Timesheet_Normal_ver4.xlsx
+++ b/server/storage/private/report/Playtorium_Timesheet_Normal_ver4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Plays\webPass\TimesheetTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Documents/playtorium/emp-management/server/storage/private/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Timesheet!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Timesheet!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -147,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -446,7 +454,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -455,7 +463,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -471,7 +479,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -564,7 +572,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -717,11 +725,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -746,12 +754,92 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -768,93 +856,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -950,9 +958,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -985,9 +993,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1191,49 +1199,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="9.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="61" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" style="46" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" style="56" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="61" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="46" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" style="56" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="7.5" style="56" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="46" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="5.375" style="46" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" style="46" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="5.33203125" style="46" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" style="46" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="0" style="47" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="47"/>
     <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="94" t="s">
+    <row r="1" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="42"/>
       <c r="K1" s="43">
         <v>0.54166666666666663</v>
@@ -1245,16 +1252,16 @@
       <c r="N1" s="45"/>
       <c r="O1" s="45"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="101"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="40"/>
@@ -1270,19 +1277,19 @@
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="37"/>
       <c r="J3" s="42"/>
       <c r="K3" s="48">
@@ -1297,19 +1304,19 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="48">
         <v>0.5</v>
       </c>
@@ -1318,7 +1325,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
     </row>
-    <row r="5" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J5" s="52"/>
       <c r="K5" s="49">
         <v>0</v>
@@ -1328,31 +1335,31 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="92" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="77" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="53"/>
@@ -1361,13 +1368,13 @@
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
+    <row r="7" spans="1:21" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1377,7 +1384,7 @@
       <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="93"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="55" t="s">
         <v>34</v>
       </c>
@@ -1404,39 +1411,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="74"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="38" t="str">
-        <f t="shared" ref="F8:F38" si="0">IF(AND(NOT(ISBLANK($D8)),NOT(ISBLANK($E8))),IF(O8&gt;0,O8,""),"")</f>
-        <v/>
-      </c>
+      <c r="F8" s="38"/>
       <c r="G8" s="33"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="57"/>
       <c r="K8" s="58">
-        <f t="shared" ref="K8:K38" si="1">(E8-D8)*24</f>
+        <f t="shared" ref="K8:K38" si="0">(E8-D8)*24</f>
         <v>0</v>
       </c>
       <c r="L8" s="59"/>
       <c r="M8" s="60">
-        <f t="shared" ref="M8:M38" si="2">IF(NOT(ISBLANK($D8)),P8+Q8,0)</f>
+        <f t="shared" ref="M8:M38" si="1">IF(NOT(ISBLANK($D8)),P8+Q8,0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="60">
-        <f t="shared" ref="N8:N38" si="3">IF(NOT(ISBLANK($D8)),R8+S8,0)</f>
+        <f t="shared" ref="N8:N38" si="2">IF(NOT(ISBLANK($D8)),R8+S8,0)</f>
         <v>0</v>
       </c>
       <c r="O8" s="60">
-        <f t="shared" ref="O8:O38" si="4">M8+N8</f>
+        <f t="shared" ref="O8:O38" si="3">M8+N8</f>
         <v>0</v>
       </c>
       <c r="P8" s="60">
-        <f t="shared" ref="P8:P38" si="5">IF(AND(MOD(D8,1)&gt;=$L$1,MOD(D8,1)&lt;$K$4,MOD(E8,1)=$L$2),($K$4-MOD(D8,1))*24,
+        <f t="shared" ref="P8:P38" si="4">IF(AND(MOD(D8,1)&gt;=$L$1,MOD(D8,1)&lt;$K$4,MOD(E8,1)=$L$2),($K$4-MOD(D8,1))*24,
 IF(AND(MOD(D8,1)&lt;$L$1,MOD(D8,1)&lt;$K$4,MOD(E8,1)=$L$2),($K$4-$L$1)*24,
 IF(AND(MOD(D8,1)&gt;=$L$1,MOD(D8,1)&lt;$K$4,MOD(E8,1)&gt;=$K$4),($K$4-MOD(D8,1))*24,
 IF(AND(MOD(D8,1)&lt;$L$1,MOD(D8,1)&lt;$K$4,MOD(E8,1)&gt;=$K$4),($K$4-$L$1)*24,
@@ -1446,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="60">
-        <f t="shared" ref="Q8:Q38" si="6">IF(AND(MOD(D8,1)&lt;=$K$4,MOD(E8,1)=$L$2),($K$2-$K$1)*24,
+        <f t="shared" ref="Q8:Q38" si="5">IF(AND(MOD(D8,1)&lt;=$K$4,MOD(E8,1)=$L$2),($K$2-$K$1)*24,
 IF(AND(MOD(D8,1)&gt;$K$4,MOD(D8,1)&lt;=$K$1,MOD(E8,1)=$L$2),($K$2-$K$1)*24,
 IF(AND(MOD(D8,1)&gt;$K$4,MOD(D8,1)&lt;=$K$3),($K$2-MOD(D8,1))*24,
 IF(AND(MOD(D8,1)&lt;=$K$4,MOD(E8,1)&gt;$K$1,MOD(E8,1)&lt;=$K$2),(MOD(E8,1)-$K$1)*24,
@@ -1473,54 +1477,51 @@
       <c r="T8" s="61"/>
       <c r="U8" s="61"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F9" s="38"/>
       <c r="G9" s="33"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="57"/>
       <c r="K9" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="60">
+      <c r="O9" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="60">
+      <c r="P9" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q9" s="60">
-        <f t="shared" si="6"/>
         <v>5.0000000000000009</v>
       </c>
       <c r="R9" s="60">
-        <f t="shared" ref="R9:R38" si="7">IF(AND(MOD(E9,1)=$K$5,MOD(D9,1)&gt;=$K$3),(MOD(E9,1)-$L$3)*24+1,
+        <f t="shared" ref="R9:R38" si="6">IF(AND(MOD(E9,1)=$K$5,MOD(D9,1)&gt;=$K$3),(MOD(E9,1)-$L$3)*24+1,
 IF(AND(MOD(E9,1)=$K$5,MOD(D9,1)&lt;$K$3),(($L$3-$K$3)*24)+1,
 IF(MOD(E9,1)&gt;=$K$3,(MOD(E9,1)-$K$3)*24,
 0)))</f>
         <v>5.0000000000000018</v>
       </c>
       <c r="S9" s="60">
-        <f t="shared" ref="S9:S38" si="8">IF(AND(MOD(D9,1)&lt;$L$1,MOD(E9,1)&lt;$L$1),(MOD(E9,1)-MOD(D9,1))*24,
+        <f t="shared" ref="S9:S38" si="7">IF(AND(MOD(D9,1)&lt;$L$1,MOD(E9,1)&lt;$L$1),(MOD(E9,1)-MOD(D9,1))*24,
 IF(AND(MOD(D9,1)&lt;$L$1,MOD(E9,1)&gt;$L$1),($L$1-MOD(D9,1))*24,
 0))</f>
         <v>0</v>
@@ -1528,1425 +1529,1338 @@
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
     </row>
-    <row r="10" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74"/>
       <c r="B10" s="16"/>
       <c r="C10" s="18"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F10" s="38"/>
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="57"/>
       <c r="K10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="60">
+      <c r="O10" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="60">
+      <c r="P10" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q10" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R10" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R10" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S10" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S10" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
     </row>
-    <row r="11" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
       <c r="B11" s="16"/>
       <c r="C11" s="18"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="33"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="57"/>
       <c r="K11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="O11" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="60">
+      <c r="P11" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q11" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R11" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R11" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S11" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S11" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T11" s="46"/>
       <c r="U11" s="46"/>
     </row>
-    <row r="12" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="33"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="57"/>
       <c r="K12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="60">
+      <c r="O12" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="60">
+      <c r="P12" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q12" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R12" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R12" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S12" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S12" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T12" s="46"/>
       <c r="U12" s="46"/>
     </row>
-    <row r="13" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
       <c r="B13" s="16"/>
       <c r="C13" s="18"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="33"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="57"/>
       <c r="K13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="59"/>
       <c r="M13" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="60">
+      <c r="O13" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="60">
+      <c r="P13" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q13" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R13" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R13" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S13" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S13" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="33"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="57"/>
       <c r="K14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="59"/>
       <c r="M14" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="60">
+      <c r="O14" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="60">
+      <c r="P14" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q14" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R14" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R14" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S14" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S14" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
       <c r="B15" s="16"/>
       <c r="C15" s="18"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F15" s="38"/>
       <c r="G15" s="33"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="57"/>
       <c r="K15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="60">
+      <c r="O15" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="60">
+      <c r="P15" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q15" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R15" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R15" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S15" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S15" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
     </row>
-    <row r="16" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
       <c r="B16" s="16"/>
       <c r="C16" s="18"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F16" s="38"/>
       <c r="G16" s="33"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="57"/>
       <c r="K16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="59"/>
       <c r="M16" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="60">
+      <c r="O16" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="60">
+      <c r="P16" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q16" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R16" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R16" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S16" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S16" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
       <c r="B17" s="16"/>
       <c r="C17" s="18"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="33"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="57"/>
       <c r="K17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="59"/>
       <c r="M17" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="60">
+      <c r="O17" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="60">
+      <c r="P17" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q17" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R17" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R17" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S17" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S17" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
       <c r="B18" s="16"/>
       <c r="C18" s="18"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F18" s="38"/>
       <c r="G18" s="33"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="57"/>
       <c r="K18" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="60">
+      <c r="O18" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="60">
+      <c r="P18" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q18" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R18" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R18" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S18" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S18" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
       <c r="B19" s="16"/>
       <c r="C19" s="18"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="33"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="57"/>
       <c r="K19" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="60">
+      <c r="O19" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="60">
+      <c r="P19" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q19" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R19" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R19" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S19" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S19" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
       <c r="B20" s="16"/>
       <c r="C20" s="18"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F20" s="38"/>
       <c r="G20" s="33"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="57"/>
       <c r="K20" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="60">
+      <c r="O20" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="60">
+      <c r="P20" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q20" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R20" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R20" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S20" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S20" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F21" s="38"/>
       <c r="G21" s="33"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="64"/>
       <c r="K21" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="60">
+      <c r="O21" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="60">
+      <c r="P21" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q21" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R21" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R21" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S21" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S21" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
     </row>
-    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
       <c r="B22" s="10"/>
       <c r="C22" s="14"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F22" s="38"/>
       <c r="G22" s="33"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="65"/>
       <c r="K22" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="60">
+      <c r="O22" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" s="60">
+      <c r="P22" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q22" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R22" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R22" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S22" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S22" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T22" s="62"/>
       <c r="U22" s="62"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F23" s="38"/>
       <c r="G23" s="33"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="66"/>
       <c r="K23" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="59"/>
       <c r="M23" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="60">
+      <c r="O23" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="60">
+      <c r="P23" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q23" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R23" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R23" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S23" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S23" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
       <c r="B24" s="16"/>
       <c r="C24" s="18"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F24" s="38"/>
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="57"/>
       <c r="K24" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="59"/>
       <c r="M24" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="60">
+      <c r="O24" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="60">
+      <c r="P24" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q24" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R24" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R24" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S24" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S24" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
       <c r="B25" s="16"/>
       <c r="C25" s="18"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F25" s="38"/>
       <c r="G25" s="33"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="57"/>
       <c r="K25" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="60">
+      <c r="O25" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O25" s="60">
+      <c r="P25" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q25" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R25" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R25" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S25" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S25" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F26" s="38"/>
       <c r="G26" s="33"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="57"/>
       <c r="K26" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="59"/>
       <c r="M26" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="60">
+      <c r="O26" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="60">
+      <c r="P26" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q26" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R26" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R26" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S26" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
       <c r="B27" s="16"/>
       <c r="C27" s="18"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F27" s="38"/>
       <c r="G27" s="33"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="57"/>
       <c r="K27" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="59"/>
       <c r="M27" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="60">
+      <c r="O27" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="60">
+      <c r="P27" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q27" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R27" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R27" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S27" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S27" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
       <c r="B28" s="16"/>
       <c r="C28" s="18"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F28" s="38"/>
       <c r="G28" s="33"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="57"/>
       <c r="K28" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="59"/>
       <c r="M28" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="60">
+      <c r="O28" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="60">
+      <c r="P28" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q28" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R28" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R28" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S28" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S28" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
       <c r="B29" s="16"/>
       <c r="C29" s="18"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F29" s="38"/>
       <c r="G29" s="33"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="57"/>
       <c r="K29" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="59"/>
       <c r="M29" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="60">
+      <c r="O29" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O29" s="60">
+      <c r="P29" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q29" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R29" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R29" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S29" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S29" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
       <c r="B30" s="16"/>
       <c r="C30" s="18"/>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F30" s="38"/>
       <c r="G30" s="33"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="57"/>
       <c r="K30" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="59"/>
       <c r="M30" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="60">
+      <c r="O30" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="60">
+      <c r="P30" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q30" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R30" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R30" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S30" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S30" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
       <c r="B31" s="16"/>
       <c r="C31" s="18"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F31" s="38"/>
       <c r="G31" s="33"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="57"/>
       <c r="K31" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="59"/>
       <c r="M31" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="60">
+      <c r="O31" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="60">
+      <c r="P31" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q31" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R31" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R31" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S31" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S31" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
       <c r="B32" s="16"/>
       <c r="C32" s="18"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
-      <c r="F32" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F32" s="38"/>
       <c r="G32" s="33"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="57"/>
       <c r="K32" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="59"/>
       <c r="M32" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="60">
+      <c r="O32" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O32" s="60">
+      <c r="P32" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q32" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R32" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R32" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S32" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S32" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
       <c r="B33" s="16"/>
       <c r="C33" s="18"/>
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
-      <c r="F33" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F33" s="38"/>
       <c r="G33" s="33"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="57"/>
       <c r="K33" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="59"/>
       <c r="M33" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="60">
+      <c r="O33" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="60">
+      <c r="P33" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q33" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R33" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R33" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S33" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S33" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="74"/>
       <c r="B34" s="16"/>
       <c r="C34" s="18"/>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
-      <c r="F34" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F34" s="38"/>
       <c r="G34" s="33"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="57"/>
       <c r="K34" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34" s="59"/>
       <c r="M34" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="60">
+      <c r="O34" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O34" s="60">
+      <c r="P34" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q34" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R34" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R34" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S34" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S34" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="74"/>
       <c r="B35" s="16"/>
       <c r="C35" s="18"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
-      <c r="F35" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F35" s="38"/>
       <c r="G35" s="33"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="57"/>
       <c r="K35" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L35" s="59"/>
       <c r="M35" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="60">
+      <c r="O35" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35" s="60">
+      <c r="P35" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q35" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R35" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R35" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S35" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S35" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T35" s="61"/>
       <c r="U35" s="61"/>
     </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="74"/>
       <c r="B36" s="16"/>
       <c r="C36" s="18"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
-      <c r="F36" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F36" s="38"/>
       <c r="G36" s="33"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="57"/>
       <c r="K36" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L36" s="59"/>
       <c r="M36" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="60">
+      <c r="O36" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O36" s="60">
+      <c r="P36" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q36" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R36" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R36" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S36" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S36" s="60">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T36" s="61"/>
       <c r="U36" s="61"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="74"/>
       <c r="B37" s="16"/>
       <c r="C37" s="18"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F37" s="38"/>
       <c r="G37" s="33"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="57"/>
       <c r="K37" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L37" s="59"/>
       <c r="M37" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="60">
+      <c r="O37" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O37" s="60">
+      <c r="P37" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q37" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R37" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R37" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S37" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S37" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="74"/>
       <c r="B38" s="16"/>
       <c r="C38" s="18"/>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="F38" s="38"/>
       <c r="G38" s="33"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="57"/>
       <c r="K38" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L38" s="59"/>
       <c r="M38" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="60">
+      <c r="O38" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O38" s="60">
+      <c r="P38" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="60">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="60">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q38" s="60">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R38" s="60">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R38" s="60">
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="S38" s="60">
         <f t="shared" si="7"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="S38" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27" t="s">
@@ -2974,7 +2888,7 @@
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27" t="s">
@@ -2991,7 +2905,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27" t="s">
@@ -3008,7 +2922,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="69"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="23"/>
@@ -3019,12 +2933,12 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82" t="s">
+    <row r="43" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="75">
         <v>0</v>
       </c>
@@ -3034,12 +2948,12 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="82" t="s">
+    <row r="44" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="75">
         <v>0</v>
       </c>
@@ -3049,12 +2963,12 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
+    <row r="45" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="75">
         <v>0</v>
       </c>
@@ -3064,12 +2978,12 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="82" t="s">
+    <row r="46" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="75">
         <v>0</v>
       </c>
@@ -3079,7 +2993,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -3090,7 +3004,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:21" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
         <v>20</v>
       </c>
@@ -3115,7 +3029,7 @@
       <c r="T48" s="73"/>
       <c r="U48" s="73"/>
     </row>
-    <row r="49" spans="1:21" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3054,7 @@
       <c r="T49" s="73"/>
       <c r="U49" s="73"/>
     </row>
-    <row r="50" spans="1:21" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3079,7 @@
       <c r="T50" s="73"/>
       <c r="U50" s="73"/>
     </row>
-    <row r="51" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3176,36 +3090,36 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="76" t="s">
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="81">
+      <c r="C53" s="101">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="D53" s="81"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="29"/>
-      <c r="F53" s="80" t="s">
+      <c r="F53" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="80"/>
+      <c r="G53" s="100"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3216,35 +3130,35 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="76" t="s">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="78"/>
+      <c r="D56" s="98"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="80" t="s">
+      <c r="F56" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="80"/>
+      <c r="G56" s="100"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -3255,7 +3169,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -3266,7 +3180,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3280,11 +3194,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A46:C46"/>
@@ -3301,19 +3218,16 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K8:K38 M8:M38 N8:N38 P8:P38 Q8:Q38 R8:R38 F8:F38 S8:S38 C53" emptyCellReference="1"/>
+    <ignoredError sqref="K8:K38 M8:M38 N8:N38 P8:P38 Q8:Q38 R8:R38 S8:S38 C53" emptyCellReference="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
